--- a/data/template/Available_XMind_marker_list.xlsx
+++ b/data/template/Available_XMind_marker_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46A167C-F313-4A8D-9186-8F64A4A6F924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA337F75-D12C-4548-8CCE-001BC30125A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>star-red</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>当天工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险与障碍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要协助及资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已撤销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol-question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_symbol_hourglass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-grey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,11 +226,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,153 +515,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
